--- a/exampleapp/example-web/example-web-form-basic.xlsx
+++ b/exampleapp/example-web/example-web-form-basic.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1271" uniqueCount="155">
   <si>
     <t>機能ID</t>
     <rPh sb="0" eb="2">
@@ -797,16 +797,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>cherry.example.web.SortParam</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cherry.example.web.SortParam</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>java.nio.charset.Charset</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cherry.foundation.spring.webmvc.SortParam</t>
   </si>
 </sst>
 </file>
@@ -1591,7 +1586,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3107,7 +3102,7 @@
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>152</v>
@@ -5059,7 +5054,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>46</v>
@@ -6557,7 +6552,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>46</v>
@@ -8055,7 +8050,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>46</v>
@@ -8090,7 +8085,7 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>46</v>
@@ -9588,7 +9583,7 @@
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>46</v>
@@ -9623,7 +9618,7 @@
       </c>
       <c r="E27" s="3"/>
       <c r="F27" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>46</v>
